--- a/download.xlsx
+++ b/download.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\download-from-youtube\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\download-from-youtube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584B9678-9957-4F51-A559-FA254E0CAE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5906AB31-10DA-4D03-8B2F-F14BE6863673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7365" yWindow="5910" windowWidth="21600" windowHeight="12735" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
   <si>
     <t>Youtube link to download</t>
   </si>
@@ -40,14 +50,329 @@
     <t>https://www.youtube.com/watch?v=PP7WOMnT288</t>
   </si>
   <si>
-    <t>video</t>
+    <t>Album</t>
+  </si>
+  <si>
+    <t>kabira</t>
+  </si>
+  <si>
+    <t>Yeh Jawaani Hai Deewani</t>
+  </si>
+  <si>
+    <t>afreen afreen</t>
+  </si>
+  <si>
+    <t>Coke Studio</t>
+  </si>
+  <si>
+    <t>bakhuda tumhi ho</t>
+  </si>
+  <si>
+    <t>Kismat Konnection</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>Pritam</t>
+  </si>
+  <si>
+    <t>Atif Aslam</t>
+  </si>
+  <si>
+    <t>Rahat Fateh Ali Khan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=60ItHLz5WEA</t>
+  </si>
+  <si>
+    <t>faded</t>
+  </si>
+  <si>
+    <t>Alan Walker</t>
+  </si>
+  <si>
+    <t>Faded</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nYh-n7EOtMA</t>
+  </si>
+  <si>
+    <t>cheap thrills</t>
+  </si>
+  <si>
+    <t>Sia</t>
+  </si>
+  <si>
+    <t>This Is Acting</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1tVL11ULjYY</t>
+  </si>
+  <si>
+    <t>the humma song</t>
+  </si>
+  <si>
+    <t>OK Jaanu</t>
+  </si>
+  <si>
+    <t>A.R. Rahman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yDv0WSgXJVg</t>
+  </si>
+  <si>
+    <t>senorita</t>
+  </si>
+  <si>
+    <t>Shankar Mahadevan</t>
+  </si>
+  <si>
+    <t>Zindagi Na Milegi Dobara</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zdXiSlRrgWQ</t>
+  </si>
+  <si>
+    <t>naina da kya kasoor</t>
+  </si>
+  <si>
+    <t>Amit Trivedi</t>
+  </si>
+  <si>
+    <t>Andhadhun</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1YqmSp22-60</t>
+  </si>
+  <si>
+    <t>who ladki</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R0XjwtP_iTY</t>
+  </si>
+  <si>
+    <t>khaabon ke parinday</t>
+  </si>
+  <si>
+    <t>Shankar Ehsaan Loy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=euy__oIUJd4</t>
+  </si>
+  <si>
+    <t>shubharambh</t>
+  </si>
+  <si>
+    <t>Kai Po Che</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YKcmMmJlKNk</t>
+  </si>
+  <si>
+    <t>manja</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gkKcddq0J4U</t>
+  </si>
+  <si>
+    <t>duniya</t>
+  </si>
+  <si>
+    <t>Piyush Mishra</t>
+  </si>
+  <si>
+    <t>Gulaal</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dvgZkm1xWPE</t>
+  </si>
+  <si>
+    <t>viva la vida</t>
+  </si>
+  <si>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>Viva La Vida</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KSwd2fYX9vg</t>
+  </si>
+  <si>
+    <t>allah ke bande</t>
+  </si>
+  <si>
+    <t>Kailash Kher</t>
+  </si>
+  <si>
+    <t>Waisa Bhi Hota Hai - II</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kym6NpYgAc8</t>
+  </si>
+  <si>
+    <t>Shibani Kashyap</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=leECCKm31TA</t>
+  </si>
+  <si>
+    <t>naina</t>
+  </si>
+  <si>
+    <t>Vishal Bhardwaj</t>
+  </si>
+  <si>
+    <t>Omkara</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rfLLnhA3Fi0</t>
+  </si>
+  <si>
+    <t>aaj jaane ki zidd na karo</t>
+  </si>
+  <si>
+    <t>Arjit Singh</t>
+  </si>
+  <si>
+    <t>Monsoon Wedding</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=smn3mDBOUy4</t>
+  </si>
+  <si>
+    <t>jiya re</t>
+  </si>
+  <si>
+    <t>Jab Tak Hai Jaan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CNZMIhckaA0</t>
+  </si>
+  <si>
+    <t>aaoge jab tum</t>
+  </si>
+  <si>
+    <t>Rashid Khan</t>
+  </si>
+  <si>
+    <t>Jab We Met</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v-eUWdjBgJA</t>
+  </si>
+  <si>
+    <t>saawali si raat</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y7TC2Ef__zw</t>
+  </si>
+  <si>
+    <t>phir le aya dil</t>
+  </si>
+  <si>
+    <t>Barfi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O-91jWrOxYk</t>
+  </si>
+  <si>
+    <t>itni si hasi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=02ossVAJM30</t>
+  </si>
+  <si>
+    <t>main kya karoon</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X_q9IXvt3ro</t>
+  </si>
+  <si>
+    <t>kyon</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gQLMM4VcmXA</t>
+  </si>
+  <si>
+    <t>baatein kuch ankahee</t>
+  </si>
+  <si>
+    <t>Life in a Metro</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PUuhmTrmCuk</t>
+  </si>
+  <si>
+    <t>alvida</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fLdCE9beY6g</t>
+  </si>
+  <si>
+    <t>o meri jaan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Fk3HIOJIjz8</t>
+  </si>
+  <si>
+    <t>in dino</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aw0s2KaoA2Q&amp;list=RDgQLMM4VcmXA&amp;index=9</t>
+  </si>
+  <si>
+    <t>tu aashiqui hai</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>Jhankaar Beats</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZAkr0KFFLLs&amp;list=RDgQLMM4VcmXA&amp;index=10</t>
+  </si>
+  <si>
+    <t>piyu bole</t>
+  </si>
+  <si>
+    <t>Sonu Nigam, Shreya Ghosal</t>
+  </si>
+  <si>
+    <t>Parineeta</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ru_5PA8cwkE&amp;list=RDgQLMM4VcmXA&amp;index=11</t>
+  </si>
+  <si>
+    <t>mitwa</t>
+  </si>
+  <si>
+    <t>Kabhi Alvida Na Kehna</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=g0eO74UmRBs</t>
+  </si>
+  <si>
+    <t>kal ho na ho</t>
+  </si>
+  <si>
+    <t>Sonu Nigam</t>
+  </si>
+  <si>
+    <t>Kal Ho Na Ho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,13 +383,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,29 +435,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -408,189 +733,615 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" style="6" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16378" width="9" style="3"/>
+    <col min="1" max="1" width="50.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="5" customWidth="1"/>
+    <col min="6" max="16378" width="9" style="3"/>
+    <col min="16379" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="25.5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.5">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.5">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.5">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.5">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.5">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25.5">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.5">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="25.5">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.5">
+      <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="25.5">
+      <c r="A31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="25.5">
+      <c r="A32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="25.5">
+      <c r="A33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{7D20D0F7-7ABE-4AEC-B907-1CFC86710409}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/download.xlsx
+++ b/download.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\download-from-youtube\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\download-from-youtube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5906AB31-10DA-4D03-8B2F-F14BE6863673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74398AB-63F5-493E-9AC7-671C0FE4977C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="5910" windowWidth="21600" windowHeight="12735" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Album</t>
   </si>
   <si>
-    <t>kabira</t>
-  </si>
-  <si>
     <t>Yeh Jawaani Hai Deewani</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>https://www.youtube.com/watch?v=60ItHLz5WEA</t>
   </si>
   <si>
-    <t>faded</t>
-  </si>
-  <si>
     <t>Alan Walker</t>
   </si>
   <si>
@@ -113,21 +107,12 @@
     <t>https://www.youtube.com/watch?v=1tVL11ULjYY</t>
   </si>
   <si>
-    <t>the humma song</t>
-  </si>
-  <si>
     <t>OK Jaanu</t>
   </si>
   <si>
-    <t>A.R. Rahman</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=yDv0WSgXJVg</t>
   </si>
   <si>
-    <t>senorita</t>
-  </si>
-  <si>
     <t>Shankar Mahadevan</t>
   </si>
   <si>
@@ -149,9 +134,6 @@
     <t>https://www.youtube.com/watch?v=1YqmSp22-60</t>
   </si>
   <si>
-    <t>who ladki</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=R0XjwtP_iTY</t>
   </si>
   <si>
@@ -245,9 +227,6 @@
     <t>https://www.youtube.com/watch?v=smn3mDBOUy4</t>
   </si>
   <si>
-    <t>jiya re</t>
-  </si>
-  <si>
     <t>Jab Tak Hai Jaan</t>
   </si>
   <si>
@@ -366,6 +345,27 @@
   </si>
   <si>
     <t>Kal Ho Na Ho</t>
+  </si>
+  <si>
+    <t>sajna aa bhi ja</t>
+  </si>
+  <si>
+    <t>Kabira</t>
+  </si>
+  <si>
+    <t>Woh Ladki</t>
+  </si>
+  <si>
+    <t>AR Rahman</t>
+  </si>
+  <si>
+    <t>The Humma Song</t>
+  </si>
+  <si>
+    <t>Jiya Re</t>
+  </si>
+  <si>
+    <t>Senorita</t>
   </si>
 </sst>
 </file>
@@ -732,22 +732,22 @@
   <dimension ref="A1:XEX37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="5" customWidth="1"/>
     <col min="6" max="16378" width="9" style="3"/>
     <col min="16379" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -755,16 +755,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" spans="1:5" ht="26.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -772,16 +772,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="25.5">
+    </row>
+    <row r="3" spans="1:5" ht="26.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -789,16 +789,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.5">
+    </row>
+    <row r="4" spans="1:5" ht="26.4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,18 +806,18 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -826,503 +826,503 @@
         <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="26.4">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:5" ht="26.4">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25.5">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="25.5">
+    <row r="9" spans="1:5" ht="26.4">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="25.5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="26.4">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="26.4">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="5" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="26.4">
+      <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="25.5">
-      <c r="A16" s="1" t="s">
+      <c r="E17" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:5" ht="26.4">
+      <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="25.5">
-      <c r="A18" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="25.5">
-      <c r="A19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="26.4">
+      <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="25.5">
-      <c r="A27" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="26.4">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="26.4">
+      <c r="A32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="25.5">
-      <c r="A31" s="1" t="s">
+      <c r="E32" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="26.4">
+      <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="D33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="25.5">
-      <c r="A32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="25.5">
-      <c r="A33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:5">

--- a/download.xlsx
+++ b/download.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\download-from-youtube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74398AB-63F5-493E-9AC7-671C0FE4977C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6A5E18-6469-4727-ADEE-333ABCCBBCE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
   <si>
     <t>Youtube link to download</t>
   </si>
@@ -56,15 +56,9 @@
     <t>Yeh Jawaani Hai Deewani</t>
   </si>
   <si>
-    <t>afreen afreen</t>
-  </si>
-  <si>
     <t>Coke Studio</t>
   </si>
   <si>
-    <t>bakhuda tumhi ho</t>
-  </si>
-  <si>
     <t>Kismat Konnection</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>https://www.youtube.com/watch?v=nYh-n7EOtMA</t>
   </si>
   <si>
-    <t>cheap thrills</t>
-  </si>
-  <si>
     <t>Sia</t>
   </si>
   <si>
@@ -122,9 +113,6 @@
     <t>https://www.youtube.com/watch?v=zdXiSlRrgWQ</t>
   </si>
   <si>
-    <t>naina da kya kasoor</t>
-  </si>
-  <si>
     <t>Amit Trivedi</t>
   </si>
   <si>
@@ -137,33 +125,21 @@
     <t>https://www.youtube.com/watch?v=R0XjwtP_iTY</t>
   </si>
   <si>
-    <t>khaabon ke parinday</t>
-  </si>
-  <si>
     <t>Shankar Ehsaan Loy</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=euy__oIUJd4</t>
   </si>
   <si>
-    <t>shubharambh</t>
-  </si>
-  <si>
     <t>Kai Po Che</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=YKcmMmJlKNk</t>
   </si>
   <si>
-    <t>manja</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=gkKcddq0J4U</t>
   </si>
   <si>
-    <t>duniya</t>
-  </si>
-  <si>
     <t>Piyush Mishra</t>
   </si>
   <si>
@@ -173,9 +149,6 @@
     <t>https://www.youtube.com/watch?v=dvgZkm1xWPE</t>
   </si>
   <si>
-    <t>viva la vida</t>
-  </si>
-  <si>
     <t>Coldplay</t>
   </si>
   <si>
@@ -185,9 +158,6 @@
     <t>https://www.youtube.com/watch?v=KSwd2fYX9vg</t>
   </si>
   <si>
-    <t>allah ke bande</t>
-  </si>
-  <si>
     <t>Kailash Kher</t>
   </si>
   <si>
@@ -203,9 +173,6 @@
     <t>https://www.youtube.com/watch?v=leECCKm31TA</t>
   </si>
   <si>
-    <t>naina</t>
-  </si>
-  <si>
     <t>Vishal Bhardwaj</t>
   </si>
   <si>
@@ -215,9 +182,6 @@
     <t>https://www.youtube.com/watch?v=rfLLnhA3Fi0</t>
   </si>
   <si>
-    <t>aaj jaane ki zidd na karo</t>
-  </si>
-  <si>
     <t>Arjit Singh</t>
   </si>
   <si>
@@ -233,9 +197,6 @@
     <t>https://www.youtube.com/watch?v=CNZMIhckaA0</t>
   </si>
   <si>
-    <t>aaoge jab tum</t>
-  </si>
-  <si>
     <t>Rashid Khan</t>
   </si>
   <si>
@@ -245,69 +206,39 @@
     <t>https://www.youtube.com/watch?v=v-eUWdjBgJA</t>
   </si>
   <si>
-    <t>saawali si raat</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=y7TC2Ef__zw</t>
   </si>
   <si>
-    <t>phir le aya dil</t>
-  </si>
-  <si>
     <t>Barfi</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=O-91jWrOxYk</t>
   </si>
   <si>
-    <t>itni si hasi</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=02ossVAJM30</t>
   </si>
   <si>
-    <t>main kya karoon</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=X_q9IXvt3ro</t>
   </si>
   <si>
-    <t>kyon</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=gQLMM4VcmXA</t>
   </si>
   <si>
-    <t>baatein kuch ankahee</t>
-  </si>
-  <si>
     <t>Life in a Metro</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=PUuhmTrmCuk</t>
   </si>
   <si>
-    <t>alvida</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=fLdCE9beY6g</t>
   </si>
   <si>
-    <t>o meri jaan</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Fk3HIOJIjz8</t>
   </si>
   <si>
-    <t>in dino</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=aw0s2KaoA2Q&amp;list=RDgQLMM4VcmXA&amp;index=9</t>
   </si>
   <si>
-    <t>tu aashiqui hai</t>
-  </si>
-  <si>
     <t>KK</t>
   </si>
   <si>
@@ -317,9 +248,6 @@
     <t>https://www.youtube.com/watch?v=ZAkr0KFFLLs&amp;list=RDgQLMM4VcmXA&amp;index=10</t>
   </si>
   <si>
-    <t>piyu bole</t>
-  </si>
-  <si>
     <t>Sonu Nigam, Shreya Ghosal</t>
   </si>
   <si>
@@ -329,27 +257,18 @@
     <t>https://www.youtube.com/watch?v=ru_5PA8cwkE&amp;list=RDgQLMM4VcmXA&amp;index=11</t>
   </si>
   <si>
-    <t>mitwa</t>
-  </si>
-  <si>
     <t>Kabhi Alvida Na Kehna</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=g0eO74UmRBs</t>
   </si>
   <si>
-    <t>kal ho na ho</t>
-  </si>
-  <si>
     <t>Sonu Nigam</t>
   </si>
   <si>
     <t>Kal Ho Na Ho</t>
   </si>
   <si>
-    <t>sajna aa bhi ja</t>
-  </si>
-  <si>
     <t>Kabira</t>
   </si>
   <si>
@@ -366,6 +285,81 @@
   </si>
   <si>
     <t>Senorita</t>
+  </si>
+  <si>
+    <t>Aaj Jaane Ki Zidd Na Karo</t>
+  </si>
+  <si>
+    <t>Aaoge Jab Tum</t>
+  </si>
+  <si>
+    <t>Saawali Si Raat</t>
+  </si>
+  <si>
+    <t>Phir Le Aya Dil</t>
+  </si>
+  <si>
+    <t>Itni Si Hasi</t>
+  </si>
+  <si>
+    <t>Main Kya Karoon</t>
+  </si>
+  <si>
+    <t>Kyon</t>
+  </si>
+  <si>
+    <t>Baatein Kuch Ankahee</t>
+  </si>
+  <si>
+    <t>Alvida</t>
+  </si>
+  <si>
+    <t>O Meri Jaan</t>
+  </si>
+  <si>
+    <t>In Dino</t>
+  </si>
+  <si>
+    <t>Tu Aashiqui Hai</t>
+  </si>
+  <si>
+    <t>Piyu Bole</t>
+  </si>
+  <si>
+    <t>Mitwa</t>
+  </si>
+  <si>
+    <t>Afreen Afreen</t>
+  </si>
+  <si>
+    <t>Bakhuda Tumhi Ho</t>
+  </si>
+  <si>
+    <t>Cheap Thrills</t>
+  </si>
+  <si>
+    <t>Khaabon Ke Parinday</t>
+  </si>
+  <si>
+    <t>Naina Da Kya Kasoor</t>
+  </si>
+  <si>
+    <t>Shubharambh</t>
+  </si>
+  <si>
+    <t>Manja</t>
+  </si>
+  <si>
+    <t>Duniya</t>
+  </si>
+  <si>
+    <t>Allah Ke Bande</t>
+  </si>
+  <si>
+    <t>Sajna Aa Bhi Ja</t>
+  </si>
+  <si>
+    <t>Naina</t>
   </si>
 </sst>
 </file>
@@ -732,8 +726,8 @@
   <dimension ref="A1:XEX37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -755,10 +749,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
@@ -772,10 +766,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -789,13 +783,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26.4">
@@ -806,523 +800,523 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26.4">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26.4">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.4">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="26.4">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="26.4">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.4">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.4">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="26.4">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="26.4">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="26.4">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="26.4">
       <c r="A33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:5">

--- a/download.xlsx
+++ b/download.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\download-from-youtube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6A5E18-6469-4727-ADEE-333ABCCBBCE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78531C3-10B0-4278-91D6-2C450CB9EE41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/download.xlsx
+++ b/download.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\download-from-youtube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78531C3-10B0-4278-91D6-2C450CB9EE41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DD7EBC-E0E9-4913-BE74-437E3C9D10B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="230">
   <si>
     <t>Youtube link to download</t>
   </si>
@@ -360,6 +360,366 @@
   </si>
   <si>
     <t>Naina</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=COKb4YKh3rw</t>
+  </si>
+  <si>
+    <t>Guncha</t>
+  </si>
+  <si>
+    <t>Mohit Chauhan</t>
+  </si>
+  <si>
+    <t>Main, Meri Patni Air Who</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iwlUeXLPvf0</t>
+  </si>
+  <si>
+    <t>Kar Gayi Chull</t>
+  </si>
+  <si>
+    <t>Neha Kakkar</t>
+  </si>
+  <si>
+    <t>Kapoor &amp; Sons</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=udra3Mfw2oo</t>
+  </si>
+  <si>
+    <t>London Thumakda</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pRpeEdMmmQ0</t>
+  </si>
+  <si>
+    <t>Waka Waka</t>
+  </si>
+  <si>
+    <t>Shakira</t>
+  </si>
+  <si>
+    <t>Sale el Sol</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HoCwa6gnmM0</t>
+  </si>
+  <si>
+    <t>Nashe Si Chad Gayi</t>
+  </si>
+  <si>
+    <t>Befikre</t>
+  </si>
+  <si>
+    <t>Arijit Singh</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kA4D3RMiwkg</t>
+  </si>
+  <si>
+    <t>O Humdum Suniyo Re</t>
+  </si>
+  <si>
+    <t>Saathiya</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eMA6GHTQ4WA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TcdEOHV3PgA</t>
+  </si>
+  <si>
+    <t>Dil Se Re</t>
+  </si>
+  <si>
+    <t>Dil Se</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CgQn3gsrIRc</t>
+  </si>
+  <si>
+    <t>Ishq Hua</t>
+  </si>
+  <si>
+    <t>Aaja Nachle</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vzlXfZlH5dk</t>
+  </si>
+  <si>
+    <t>Main Koi Aisa Geet Gaaun</t>
+  </si>
+  <si>
+    <t>Abhijeet</t>
+  </si>
+  <si>
+    <t>Yes Boss</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a3aNOVG6fmc</t>
+  </si>
+  <si>
+    <t>Badi Mushkil Hai</t>
+  </si>
+  <si>
+    <t>Anjaam</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2228O5t62VQ</t>
+  </si>
+  <si>
+    <t>Yeh Dil Deewana</t>
+  </si>
+  <si>
+    <t>Pardes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RKB1LUojBVA</t>
+  </si>
+  <si>
+    <t>Do Dil Mil Rahe Hain</t>
+  </si>
+  <si>
+    <t>Kumar Sanu</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N3QzaUwml5w</t>
+  </si>
+  <si>
+    <t>Chaand Taare</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z-vcE-UTc-0</t>
+  </si>
+  <si>
+    <t>Yeh Haseem Wadiyan</t>
+  </si>
+  <si>
+    <t>Roja</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iv7lcUkFVSc</t>
+  </si>
+  <si>
+    <t>O Re Piya</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JLXfTmF9DSI</t>
+  </si>
+  <si>
+    <t>Chupke Se</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eEeX2QMlSlo</t>
+  </si>
+  <si>
+    <t>Yun Hi Chala Chal</t>
+  </si>
+  <si>
+    <t>Udit Narayan</t>
+  </si>
+  <si>
+    <t>Swades</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PQmrmVs10X8</t>
+  </si>
+  <si>
+    <t>Chhaiya Chhaiya</t>
+  </si>
+  <si>
+    <t>Sukhwinder Singh</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4tiVPuLbbHg</t>
+  </si>
+  <si>
+    <t>Yeh Jo Des Hai Tera</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2kgEc6oH9J0</t>
+  </si>
+  <si>
+    <t>Pani Da Rang</t>
+  </si>
+  <si>
+    <t>Ayushman Khurrana</t>
+  </si>
+  <si>
+    <t>Vicky Donor</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cmMiyZaSELo</t>
+  </si>
+  <si>
+    <t>Khuda Jaane</t>
+  </si>
+  <si>
+    <t>Bachna Ae Haseeno</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uC1iJcYOyeY</t>
+  </si>
+  <si>
+    <t>Kaise Mujhe</t>
+  </si>
+  <si>
+    <t>Shreya Ghosal</t>
+  </si>
+  <si>
+    <t>Ghajini</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JFcgOboQZ08</t>
+  </si>
+  <si>
+    <t>Dilbar</t>
+  </si>
+  <si>
+    <t>Satyameva Jayate</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=b4b1cMVZOUU</t>
+  </si>
+  <si>
+    <t>Hookah Bar</t>
+  </si>
+  <si>
+    <t>Khiladi 786</t>
+  </si>
+  <si>
+    <t>Himesh Reshamiya</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HIbzXaBdwZw</t>
+  </si>
+  <si>
+    <t>Kabhi Kabhi Aditi Zindagi</t>
+  </si>
+  <si>
+    <t>Rashid Ali</t>
+  </si>
+  <si>
+    <t>Jaane Tu Ya Jaane Na</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6vKucgAeF_Q</t>
+  </si>
+  <si>
+    <t>Matargashti</t>
+  </si>
+  <si>
+    <t>Tamasha</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WmMH3TyZlVs</t>
+  </si>
+  <si>
+    <t>Taare Zameen Par</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FIaUYKLg5S4</t>
+  </si>
+  <si>
+    <t>Kholo Kholo</t>
+  </si>
+  <si>
+    <t>Raman Mahadevan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=b3J1waKpCE8</t>
+  </si>
+  <si>
+    <t>Mera Jahaan</t>
+  </si>
+  <si>
+    <t>Shailendra Barve</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JX409_Bq7m0</t>
+  </si>
+  <si>
+    <t>Right Here Right Now</t>
+  </si>
+  <si>
+    <t>Bluff Master</t>
+  </si>
+  <si>
+    <t>Sunidhi Chauhan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BrfRB6aTZlM</t>
+  </si>
+  <si>
+    <t>Roobaroo</t>
+  </si>
+  <si>
+    <t>Naresh Iyer</t>
+  </si>
+  <si>
+    <t>Rang De Basanti</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hnswwRWLi3E</t>
+  </si>
+  <si>
+    <t>Khalbali</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UqblLzBwlns</t>
+  </si>
+  <si>
+    <t>Tu Bin Bataye</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SS3lIQdKP-A</t>
+  </si>
+  <si>
+    <t>Masakali</t>
+  </si>
+  <si>
+    <t>Delhi 6</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nqydfARGDh4</t>
+  </si>
+  <si>
+    <t>Genda Phool</t>
+  </si>
+  <si>
+    <t>Rekha Bharadwaj</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sPkthMfeWMY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hfmjdObRgWY</t>
+  </si>
+  <si>
+    <t>Bandeya Ho</t>
+  </si>
+  <si>
+    <t>Khuda Ke Liye</t>
+  </si>
+  <si>
+    <t>Khawar Jawad</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SqEcZrfcfoo</t>
+  </si>
+  <si>
+    <t>Chaar Kadam</t>
+  </si>
+  <si>
+    <t>Shaan</t>
+  </si>
+  <si>
+    <t>PK</t>
   </si>
 </sst>
 </file>
@@ -723,11 +1083,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:XEX37"/>
+  <dimension ref="A1:XEX73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1319,17 +1679,668 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+    <row r="35" spans="1:5" ht="26.4">
+      <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="26.4">
+      <c r="A37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="26.4">
+      <c r="A39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="26.4">
+      <c r="A40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="26.4">
+      <c r="A44" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="26.4">
+      <c r="A47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="26.4">
+      <c r="A49" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="26.4">
+      <c r="A50" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="26.4">
+      <c r="A52" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="26.4">
+      <c r="A53" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="26.4">
+      <c r="A54" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="26.4">
+      <c r="A55" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="26.4">
+      <c r="A59" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="26.4">
+      <c r="A60" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="26.4">
+      <c r="A62" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="26.4">
+      <c r="A63" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="26.4">
+      <c r="A64" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="26.4">
+      <c r="A65" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="26.4">
+      <c r="A70" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>229</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/download.xlsx
+++ b/download.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\download-from-youtube\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\download-from-youtube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DD7EBC-E0E9-4913-BE74-437E3C9D10B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452872F7-55BA-4E08-A649-76FA9B6059D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="5025" windowWidth="28800" windowHeight="17235" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$73</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="228">
   <si>
     <t>Youtube link to download</t>
   </si>
@@ -125,9 +128,6 @@
     <t>https://www.youtube.com/watch?v=R0XjwtP_iTY</t>
   </si>
   <si>
-    <t>Shankar Ehsaan Loy</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=euy__oIUJd4</t>
   </si>
   <si>
@@ -182,9 +182,6 @@
     <t>https://www.youtube.com/watch?v=rfLLnhA3Fi0</t>
   </si>
   <si>
-    <t>Arjit Singh</t>
-  </si>
-  <si>
     <t>Monsoon Wedding</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t>https://www.youtube.com/watch?v=ZAkr0KFFLLs&amp;list=RDgQLMM4VcmXA&amp;index=10</t>
   </si>
   <si>
-    <t>Sonu Nigam, Shreya Ghosal</t>
-  </si>
-  <si>
     <t>Parineeta</t>
   </si>
   <si>
@@ -275,9 +269,6 @@
     <t>Woh Ladki</t>
   </si>
   <si>
-    <t>AR Rahman</t>
-  </si>
-  <si>
     <t>The Humma Song</t>
   </si>
   <si>
@@ -455,9 +446,6 @@
     <t>Main Koi Aisa Geet Gaaun</t>
   </si>
   <si>
-    <t>Abhijeet</t>
-  </si>
-  <si>
     <t>Yes Boss</t>
   </si>
   <si>
@@ -548,9 +536,6 @@
     <t>Pani Da Rang</t>
   </si>
   <si>
-    <t>Ayushman Khurrana</t>
-  </si>
-  <si>
     <t>Vicky Donor</t>
   </si>
   <si>
@@ -569,9 +554,6 @@
     <t>Kaise Mujhe</t>
   </si>
   <si>
-    <t>Shreya Ghosal</t>
-  </si>
-  <si>
     <t>Ghajini</t>
   </si>
   <si>
@@ -593,9 +575,6 @@
     <t>Khiladi 786</t>
   </si>
   <si>
-    <t>Himesh Reshamiya</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=HIbzXaBdwZw</t>
   </si>
   <si>
@@ -692,9 +671,6 @@
     <t>Genda Phool</t>
   </si>
   <si>
-    <t>Rekha Bharadwaj</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=sPkthMfeWMY</t>
   </si>
   <si>
@@ -720,6 +696,27 @@
   </si>
   <si>
     <t>PK</t>
+  </si>
+  <si>
+    <t>A. R. Rahman</t>
+  </si>
+  <si>
+    <t>Himesh Reshammiya</t>
+  </si>
+  <si>
+    <t>Ayushmann Khurrana</t>
+  </si>
+  <si>
+    <t>Shankar-Ehsaan-Loy</t>
+  </si>
+  <si>
+    <t>Rekha Bhardwaj</t>
+  </si>
+  <si>
+    <t>Shreya Ghoshal</t>
+  </si>
+  <si>
+    <t>Abhijeet Bhattacharya</t>
   </si>
 </sst>
 </file>
@@ -1086,22 +1083,22 @@
   <dimension ref="A1:XEX73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="5" customWidth="1"/>
     <col min="6" max="16378" width="9" style="3"/>
     <col min="16379" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4">
+    <row r="1" spans="1:5" ht="25.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.4">
+    <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -1135,7 +1132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="26.4">
+    <row r="3" spans="1:5" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>14</v>
@@ -1152,7 +1149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="26.4">
+    <row r="4" spans="1:5" ht="25.5">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1160,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
@@ -1194,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>19</v>
@@ -1203,7 +1200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.4">
+    <row r="7" spans="1:5" ht="25.5">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1211,16 +1208,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.4">
+    <row r="8" spans="1:5" ht="25.5">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,16 +1225,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="26.4">
+    <row r="9" spans="1:5" ht="25.5">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1245,10 +1242,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>25</v>
@@ -1262,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>27</v>
@@ -1271,7 +1268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="26.4">
+    <row r="11" spans="1:5" ht="25.5">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1279,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>27</v>
@@ -1290,1056 +1287,1056 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="E15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.5">
+      <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="26.4">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="5" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="25.5">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="26.4">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.5">
+      <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="5" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="25.5">
+      <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="26.4">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="25.5">
+      <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="26.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.5">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="26.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="25.5">
       <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="5" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="25.5">
+      <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="26.4">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:5" ht="25.5">
+      <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="26.4">
-      <c r="A33" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="26.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="25.5">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="25.5">
+      <c r="A37" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D37" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="26.4">
-      <c r="A37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="25.5">
+      <c r="A39" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="B39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D39" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="26.4">
-      <c r="A39" s="5" t="s">
+    </row>
+    <row r="40" spans="1:5" ht="25.5">
+      <c r="A40" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="D40" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="26.4">
-      <c r="A40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="25.5">
+      <c r="A44" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="5" t="s">
+      <c r="D44" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="5" t="s">
+    </row>
+    <row r="45" spans="1:5" ht="25.5">
+      <c r="A45" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="26.4">
-      <c r="A44" s="5" t="s">
+      <c r="B45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="D45" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="25.5">
+      <c r="A47" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="E47" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.5">
+      <c r="A48" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="26.4">
-      <c r="A47" s="5" t="s">
+      <c r="D48" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="25.5">
+      <c r="A49" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="5" t="s">
+      <c r="B49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D49" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="5" t="s">
+    </row>
+    <row r="50" spans="1:5" ht="25.5">
+      <c r="A50" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="5" t="s">
+      <c r="B50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="26.4">
-      <c r="A49" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="26.4">
-      <c r="A50" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="25.5">
+      <c r="A52" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="5" t="s">
+    </row>
+    <row r="53" spans="1:5" ht="25.5">
+      <c r="A53" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="B53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="26.4">
-      <c r="A52" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" s="5" t="s">
+    <row r="54" spans="1:5" ht="25.5">
+      <c r="A54" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="B54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="26.4">
-      <c r="A53" s="5" t="s">
+      <c r="D54" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="25.5">
+      <c r="A55" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="B55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D55" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="26.4">
-      <c r="A54" s="5" t="s">
+    </row>
+    <row r="56" spans="1:5" ht="25.5">
+      <c r="A56" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="B56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="26.4">
-      <c r="A55" s="5" t="s">
+      <c r="D56" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="5" t="s">
+    </row>
+    <row r="57" spans="1:5" ht="25.5">
+      <c r="A57" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="B57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="D57" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="25.5">
+      <c r="A59" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="25.5">
+      <c r="A60" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="26.4">
-      <c r="A59" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="26.4">
-      <c r="A60" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="26.4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="25.5">
       <c r="A62" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E62" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="25.5">
+      <c r="A63" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="25.5">
+      <c r="A64" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="25.5">
+      <c r="A65" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="26.4">
-      <c r="A63" s="5" t="s">
+      <c r="D65" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="26.4">
-      <c r="A64" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="26.4">
-      <c r="A65" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="5" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="5" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="26.4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="25.5">
       <c r="A70" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="E71" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="5" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
